--- a/Simulated PV data/Input files/input_datasheet.xlsx
+++ b/Simulated PV data/Input files/input_datasheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C52B9-7FD3-48C9-9588-C8F98377CEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="933" activeTab="1"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="933" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="15" r:id="rId1"/>
@@ -15,17 +16,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -153,8 +143,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,19 +165,6 @@
       <name val="Ubuntu Light"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -218,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,23 +216,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,26 +229,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2 2" xfId="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,33 +510,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -593,7 +544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -601,7 +552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -609,7 +560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -617,7 +568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -625,7 +576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -633,7 +584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -641,7 +592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -649,7 +600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -657,7 +608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -665,7 +616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -673,7 +624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -681,7 +632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -696,22 +647,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickTop="1" thickBot="1">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -754,13 +705,8 @@
       <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -803,13 +749,8 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -853,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -897,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -942,7 +883,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Simulated PV data/Input files/input_datasheet.xlsx
+++ b/Simulated PV data/Input files/input_datasheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C52B9-7FD3-48C9-9588-C8F98377CEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD95A0D-77F9-422A-9BA8-07E870F0AD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="933" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
